--- a/knowledge/systems/systems.xlsx
+++ b/knowledge/systems/systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD473733-13E5-A246-AE1A-E81CE0F60687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE40BB-7CA0-DE43-904A-96DF09D242F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7F23F701-5451-C348-85A2-A2D33B7FD47E}"/>
   </bookViews>
@@ -22,6 +22,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Sum of Points</t>
+  </si>
+  <si>
+    <t>Time/Day</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,14 +66,139 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF40FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -72,6 +208,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65D8E06-4CFB-D24C-BF74-8B94E51F349C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6642100" y="622300"/>
+          <a:ext cx="7772400" cy="3575077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +556,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE1558A-81F7-C040-9127-50EDEA0DF3B3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="29" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44229</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44230</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44231</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44232</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44233</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44234</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44235</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44236</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44237</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44238</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44239</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44240</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44241</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44242</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44243</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44244</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44245</v>
+      </c>
+      <c r="T1" s="1">
+        <v>44246</v>
+      </c>
+      <c r="U1" s="1">
+        <v>44247</v>
+      </c>
+      <c r="V1" s="1">
+        <v>44248</v>
+      </c>
+      <c r="W1" s="1">
+        <v>44249</v>
+      </c>
+      <c r="X1" s="1">
+        <v>44250</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>44251</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>44252</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>44253</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>44254</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>44255</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>44256</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>0.20833333333333301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <f>SUM(B2:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:AE26" si="0">SUM(C2:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:AE26">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>OR(B2=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>OR(B2=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>OR(B2=-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>OR(B2=-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AE25">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>OR(B1=3)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/knowledge/systems/systems.xlsx
+++ b/knowledge/systems/systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE40BB-7CA0-DE43-904A-96DF09D242F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC503966-027A-1345-87A8-E992BDD8CC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7F23F701-5451-C348-85A2-A2D33B7FD47E}"/>
   </bookViews>
@@ -560,15 +560,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="29" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="29" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
@@ -576,94 +575,94 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>44228</v>
+        <v>44242</v>
       </c>
       <c r="C1" s="1">
-        <v>44229</v>
+        <v>44243</v>
       </c>
       <c r="D1" s="1">
-        <v>44230</v>
+        <v>44244</v>
       </c>
       <c r="E1" s="1">
-        <v>44231</v>
+        <v>44245</v>
       </c>
       <c r="F1" s="1">
-        <v>44232</v>
+        <v>44246</v>
       </c>
       <c r="G1" s="1">
-        <v>44233</v>
+        <v>44247</v>
       </c>
       <c r="H1" s="1">
-        <v>44234</v>
+        <v>44248</v>
       </c>
       <c r="I1" s="1">
-        <v>44235</v>
+        <v>44249</v>
       </c>
       <c r="J1" s="1">
-        <v>44236</v>
+        <v>44250</v>
       </c>
       <c r="K1" s="1">
-        <v>44237</v>
+        <v>44251</v>
       </c>
       <c r="L1" s="1">
-        <v>44238</v>
+        <v>44252</v>
       </c>
       <c r="M1" s="1">
-        <v>44239</v>
+        <v>44253</v>
       </c>
       <c r="N1" s="1">
-        <v>44240</v>
+        <v>44254</v>
       </c>
       <c r="O1" s="1">
-        <v>44241</v>
+        <v>44255</v>
       </c>
       <c r="P1" s="1">
-        <v>44242</v>
+        <v>44256</v>
       </c>
       <c r="Q1" s="1">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="R1" s="1">
-        <v>44244</v>
+        <v>44258</v>
       </c>
       <c r="S1" s="1">
-        <v>44245</v>
+        <v>44259</v>
       </c>
       <c r="T1" s="1">
-        <v>44246</v>
+        <v>44260</v>
       </c>
       <c r="U1" s="1">
-        <v>44247</v>
+        <v>44261</v>
       </c>
       <c r="V1" s="1">
-        <v>44248</v>
+        <v>44262</v>
       </c>
       <c r="W1" s="1">
-        <v>44249</v>
+        <v>44263</v>
       </c>
       <c r="X1" s="1">
-        <v>44250</v>
+        <v>44264</v>
       </c>
       <c r="Y1" s="1">
-        <v>44251</v>
+        <v>44265</v>
       </c>
       <c r="Z1" s="1">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="AA1" s="1">
-        <v>44253</v>
+        <v>44267</v>
       </c>
       <c r="AB1" s="1">
-        <v>44254</v>
+        <v>44268</v>
       </c>
       <c r="AC1" s="1">
-        <v>44255</v>
+        <v>44269</v>
       </c>
       <c r="AD1" s="1">
-        <v>44256</v>
+        <v>44270</v>
       </c>
       <c r="AE1" s="1">
-        <v>44257</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
